--- a/input/state_def.xlsx
+++ b/input/state_def.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karlahernandez/Desktop/STEM/supply_chain/dp-scheduling-wsetup/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA84A349-0C47-6B46-B635-62408470765E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB407B0-F215-514F-AECA-39757CB03C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10360" yWindow="3120" windowWidth="28040" windowHeight="17440" xr2:uid="{7AF1CA2D-A986-AE48-8C82-95548A4C8927}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <t>product_1</t>
   </si>
@@ -72,6 +72,18 @@
   </si>
   <si>
     <t>ms_id</t>
+  </si>
+  <si>
+    <t>m1_s1</t>
+  </si>
+  <si>
+    <t>m1_s2</t>
+  </si>
+  <si>
+    <t>m2_s1</t>
+  </si>
+  <si>
+    <t>m2_s2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +464,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -483,9 +495,8 @@
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="str">
-        <f>_xlfn.CONCAT(A2,"_",B2)</f>
-        <v>machine_1_state_1</v>
+      <c r="C2" t="s">
+        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
@@ -498,9 +509,8 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="str">
-        <f t="shared" ref="C3:C8" si="0">_xlfn.CONCAT(A3,"_",B3)</f>
-        <v>machine_1_state_1</v>
+      <c r="C3" t="s">
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -513,9 +523,8 @@
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="str">
-        <f t="shared" si="0"/>
-        <v>machine_1_state_2</v>
+      <c r="C4" t="s">
+        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -528,9 +537,8 @@
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="str">
-        <f t="shared" si="0"/>
-        <v>machine_1_state_2</v>
+      <c r="C5" t="s">
+        <v>13</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
@@ -543,9 +551,8 @@
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v>machine_2_state_1</v>
+      <c r="C6" t="s">
+        <v>14</v>
       </c>
       <c r="D6" t="s">
         <v>0</v>
@@ -558,9 +565,8 @@
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v>machine_2_state_2</v>
+      <c r="C7" t="s">
+        <v>15</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
@@ -573,9 +579,8 @@
       <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v>machine_2_state_2</v>
+      <c r="C8" t="s">
+        <v>15</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
